--- a/data/trans_orig/P2B_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2B_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F293851B-24EA-4313-B69E-81E94F43493C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A33DEA2A-30C3-403B-9D4C-E44AE861480A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9A144377-11AE-4546-9455-7297DF594E35}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{59EAB1EF-92C6-41C9-949C-9B8E10D00631}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="514">
   <si>
     <t>Hogares con personas que requieren dedicación o cuidados especiales en 2007 (Tasa respuesta: 80,4%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>19,32%</t>
   </si>
   <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
   </si>
   <si>
     <t>15,95%</t>
   </si>
   <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
   </si>
   <si>
     <t>17,5%</t>
   </si>
   <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>80,68%</t>
   </si>
   <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
   </si>
   <si>
     <t>84,05%</t>
   </si>
   <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
   </si>
   <si>
     <t>82,5%</t>
   </si>
   <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>29,52%</t>
   </si>
   <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
   </si>
   <si>
     <t>34,49%</t>
   </si>
   <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
   </si>
   <si>
     <t>32,18%</t>
   </si>
   <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
   </si>
   <si>
     <t>70,48%</t>
   </si>
   <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
   </si>
   <si>
     <t>65,51%</t>
   </si>
   <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
   </si>
   <si>
     <t>67,82%</t>
   </si>
   <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +197,55 @@
     <t>26,97%</t>
   </si>
   <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
   </si>
   <si>
     <t>29,99%</t>
   </si>
   <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
   </si>
   <si>
     <t>28,6%</t>
   </si>
   <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
   </si>
   <si>
     <t>73,03%</t>
   </si>
   <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
   </si>
   <si>
     <t>70,01%</t>
   </si>
   <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
   </si>
   <si>
     <t>71,4%</t>
   </si>
   <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,55 +254,55 @@
     <t>16,14%</t>
   </si>
   <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
   </si>
   <si>
     <t>19,42%</t>
   </si>
   <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
   </si>
   <si>
     <t>17,79%</t>
   </si>
   <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
   </si>
   <si>
     <t>83,86%</t>
   </si>
   <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
   </si>
   <si>
     <t>80,58%</t>
   </si>
   <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
   </si>
   <si>
     <t>82,21%</t>
   </si>
   <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -311,55 +311,55 @@
     <t>14,65%</t>
   </si>
   <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
   </si>
   <si>
     <t>20,73%</t>
   </si>
   <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
   </si>
   <si>
     <t>17,81%</t>
   </si>
   <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
   </si>
   <si>
     <t>85,35%</t>
   </si>
   <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
   </si>
   <si>
     <t>79,27%</t>
   </si>
   <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
   </si>
   <si>
     <t>82,19%</t>
   </si>
   <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -368,1213 +368,1219 @@
     <t>20,08%</t>
   </si>
   <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
   </si>
   <si>
     <t>27,95%</t>
   </si>
   <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
   </si>
   <si>
     <t>24,6%</t>
   </si>
   <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
   </si>
   <si>
     <t>79,92%</t>
   </si>
   <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
   </si>
   <si>
     <t>72,05%</t>
   </si>
   <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
   </si>
   <si>
     <t>75,4%</t>
   </si>
   <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
   </si>
   <si>
     <t>21,83%</t>
   </si>
   <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
   </si>
   <si>
     <t>26,19%</t>
   </si>
   <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2012 (Tasa respuesta: 84,23%)</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2015 (Tasa respuesta: 78,58%)</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2023 (Tasa respuesta: 77,47%)</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
     <t>24,55%</t>
   </si>
   <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
   </si>
   <si>
     <t>75,45%</t>
   </si>
   <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2012 (Tasa respuesta: 84,23%)</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2015 (Tasa respuesta: 78,58%)</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2023 (Tasa respuesta: 77,47%)</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
   </si>
   <si>
     <t>22,25%</t>
   </si>
   <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
   </si>
   <si>
     <t>39,87%</t>
   </si>
   <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
   </si>
   <si>
     <t>60,13%</t>
   </si>
   <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
+    <t>72,96%</t>
   </si>
   <si>
     <t>72,51%</t>
   </si>
   <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
   </si>
 </sst>
 </file>
@@ -1986,7 +1992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD9FDAF-3642-4F57-94AA-444FC46432A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13FFC12C-27A6-44D5-A977-DD12FC93D0A3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3205,7 +3211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F626E6F3-35C5-4158-A97F-E8A7A562E17E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6658C30-D665-4008-953D-ECA8C4E13C52}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3645,7 +3651,7 @@
         <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>479</v>
@@ -3654,13 +3660,13 @@
         <v>510424</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>910</v>
@@ -3669,13 +3675,13 @@
         <v>959181</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,13 +3696,13 @@
         <v>167042</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>144</v>
@@ -3705,13 +3711,13 @@
         <v>154132</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>302</v>
@@ -3720,13 +3726,13 @@
         <v>321174</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,13 +3800,13 @@
         <v>272517</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>209</v>
@@ -3809,13 +3815,13 @@
         <v>236909</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>452</v>
@@ -3824,13 +3830,13 @@
         <v>509425</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,13 +3851,13 @@
         <v>222110</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>254</v>
@@ -3860,13 +3866,13 @@
         <v>293327</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>454</v>
@@ -3875,13 +3881,13 @@
         <v>515437</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +3955,13 @@
         <v>108708</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>119</v>
@@ -3964,13 +3970,13 @@
         <v>131117</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>220</v>
@@ -3979,13 +3985,13 @@
         <v>239825</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,13 +4006,13 @@
         <v>251804</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>252</v>
@@ -4015,13 +4021,13 @@
         <v>277213</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>479</v>
@@ -4030,13 +4036,13 @@
         <v>529017</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,13 +4110,13 @@
         <v>206341</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>264</v>
@@ -4119,13 +4125,13 @@
         <v>285711</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>447</v>
@@ -4134,13 +4140,13 @@
         <v>492052</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>243</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,13 +4161,13 @@
         <v>349563</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H20" s="7">
         <v>424</v>
@@ -4170,13 +4176,13 @@
         <v>451055</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M20" s="7">
         <v>741</v>
@@ -4185,13 +4191,13 @@
         <v>800618</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>253</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,28 +4265,28 @@
         <v>1423649</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H22" s="7">
         <v>1583</v>
       </c>
       <c r="I22" s="7">
-        <v>1702448</v>
+        <v>1702449</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M22" s="7">
         <v>2918</v>
@@ -4289,13 +4295,13 @@
         <v>3126097</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,13 +4316,13 @@
         <v>1324573</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H23" s="7">
         <v>1330</v>
@@ -4325,13 +4331,13 @@
         <v>1441133</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M23" s="7">
         <v>2563</v>
@@ -4340,13 +4346,13 @@
         <v>2765706</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,7 +4379,7 @@
         <v>2913</v>
       </c>
       <c r="I24" s="7">
-        <v>3143581</v>
+        <v>3143582</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -4424,7 +4430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE2E6AA-C9B2-4464-884B-26109575B962}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97969516-7F92-43C8-86ED-03B2B46D4F51}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4441,7 +4447,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4548,13 +4554,13 @@
         <v>82790</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H4" s="7">
         <v>113</v>
@@ -4563,13 +4569,13 @@
         <v>113241</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M4" s="7">
         <v>188</v>
@@ -4578,13 +4584,13 @@
         <v>196031</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,13 +4605,13 @@
         <v>142608</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H5" s="7">
         <v>134</v>
@@ -4614,13 +4620,13 @@
         <v>130044</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M5" s="7">
         <v>270</v>
@@ -4629,13 +4635,13 @@
         <v>272652</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,13 +4709,13 @@
         <v>189753</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H7" s="7">
         <v>291</v>
@@ -4718,28 +4724,28 @@
         <v>285110</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M7" s="7">
         <v>473</v>
       </c>
       <c r="N7" s="7">
-        <v>474864</v>
+        <v>474863</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,13 +4760,13 @@
         <v>148259</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H8" s="7">
         <v>158</v>
@@ -4769,13 +4775,13 @@
         <v>151708</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M8" s="7">
         <v>300</v>
@@ -4784,13 +4790,13 @@
         <v>299966</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4832,7 +4838,7 @@
         <v>773</v>
       </c>
       <c r="N9" s="7">
-        <v>774830</v>
+        <v>774829</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4858,13 +4864,13 @@
         <v>320621</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H10" s="7">
         <v>383</v>
@@ -4873,13 +4879,13 @@
         <v>382375</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M10" s="7">
         <v>689</v>
@@ -4888,13 +4894,13 @@
         <v>702996</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,13 +4915,13 @@
         <v>203517</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H11" s="7">
         <v>208</v>
@@ -4924,13 +4930,13 @@
         <v>205827</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M11" s="7">
         <v>405</v>
@@ -4939,13 +4945,13 @@
         <v>409344</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,13 +5019,13 @@
         <v>199249</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H13" s="7">
         <v>186</v>
@@ -5028,13 +5034,13 @@
         <v>201266</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M13" s="7">
         <v>366</v>
@@ -5043,13 +5049,13 @@
         <v>400515</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,13 +5070,13 @@
         <v>287005</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H14" s="7">
         <v>275</v>
@@ -5079,13 +5085,13 @@
         <v>296300</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M14" s="7">
         <v>536</v>
@@ -5094,13 +5100,13 @@
         <v>583305</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,13 +5174,13 @@
         <v>81199</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H16" s="7">
         <v>97</v>
@@ -5183,13 +5189,13 @@
         <v>112635</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>344</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>224</v>
+        <v>346</v>
       </c>
       <c r="M16" s="7">
         <v>170</v>
@@ -5198,13 +5204,13 @@
         <v>193834</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,13 +5225,13 @@
         <v>260629</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H17" s="7">
         <v>273</v>
@@ -5234,10 +5240,10 @@
         <v>310332</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>186</v>
+        <v>353</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>233</v>
+        <v>354</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>355</v>
@@ -5493,13 +5499,13 @@
         <v>1386818</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>216</v>
+        <v>380</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>381</v>
+        <v>161</v>
       </c>
       <c r="M22" s="7">
         <v>2302</v>
@@ -5514,7 +5520,7 @@
         <v>383</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>384</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,13 +5535,13 @@
         <v>1458874</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="H23" s="7">
         <v>1455</v>
@@ -5544,13 +5550,13 @@
         <v>1566305</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>208</v>
+        <v>387</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="M23" s="7">
         <v>2860</v>
@@ -5559,13 +5565,13 @@
         <v>3025179</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,7 +5649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B927FD-E094-463C-AEDB-35400D00D644}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221AD72F-B1B4-4EC4-B0C2-1281C56826D9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5660,7 +5666,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5767,13 +5773,13 @@
         <v>27759</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -5782,13 +5788,13 @@
         <v>40115</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
@@ -5797,13 +5803,13 @@
         <v>67873</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,13 +5824,13 @@
         <v>131820</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="H5" s="7">
         <v>73</v>
@@ -5833,13 +5839,13 @@
         <v>121346</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="M5" s="7">
         <v>128</v>
@@ -5848,13 +5854,13 @@
         <v>253167</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5922,13 +5928,13 @@
         <v>56817</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H7" s="7">
         <v>106</v>
@@ -5937,13 +5943,13 @@
         <v>112012</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="M7" s="7">
         <v>152</v>
@@ -5952,13 +5958,13 @@
         <v>168829</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5973,10 +5979,10 @@
         <v>135398</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>421</v>
@@ -6095,10 +6101,10 @@
         <v>431</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>110</v>
+        <v>432</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="M10" s="7">
         <v>330</v>
@@ -6107,13 +6113,13 @@
         <v>285984</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6128,13 +6134,13 @@
         <v>265144</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H11" s="7">
         <v>528</v>
@@ -6143,13 +6149,13 @@
         <v>375614</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>118</v>
+        <v>442</v>
       </c>
       <c r="M11" s="7">
         <v>787</v>
@@ -6158,13 +6164,13 @@
         <v>640757</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,13 +6238,13 @@
         <v>116094</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="H13" s="7">
         <v>186</v>
@@ -6247,13 +6253,13 @@
         <v>124560</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>447</v>
+        <v>417</v>
       </c>
       <c r="M13" s="7">
         <v>295</v>
@@ -6262,13 +6268,13 @@
         <v>240654</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,13 +6289,13 @@
         <v>344017</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="H14" s="7">
         <v>625</v>
@@ -6298,13 +6304,13 @@
         <v>408770</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>455</v>
+        <v>427</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M14" s="7">
         <v>976</v>
@@ -6313,13 +6319,13 @@
         <v>752787</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,13 +6393,13 @@
         <v>68538</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H16" s="7">
         <v>123</v>
@@ -6402,13 +6408,13 @@
         <v>76423</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="M16" s="7">
         <v>198</v>
@@ -6417,13 +6423,13 @@
         <v>144961</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6438,13 +6444,13 @@
         <v>281969</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H17" s="7">
         <v>530</v>
@@ -6453,13 +6459,13 @@
         <v>310388</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M17" s="7">
         <v>838</v>
@@ -6468,13 +6474,13 @@
         <v>592357</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6542,13 +6548,13 @@
         <v>136697</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H19" s="7">
         <v>519</v>
@@ -6557,13 +6563,13 @@
         <v>391144</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="M19" s="7">
         <v>729</v>
@@ -6572,13 +6578,13 @@
         <v>527841</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,13 +6599,13 @@
         <v>555229</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H20" s="7">
         <v>1184</v>
@@ -6608,13 +6614,13 @@
         <v>633142</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M20" s="7">
         <v>1995</v>
@@ -6623,13 +6629,13 @@
         <v>1188370</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6697,13 +6703,13 @@
         <v>537288</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H22" s="7">
         <v>1166</v>
@@ -6712,13 +6718,13 @@
         <v>898854</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="M22" s="7">
         <v>1745</v>
@@ -6727,13 +6733,13 @@
         <v>1436142</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,13 +6754,13 @@
         <v>1713576</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H23" s="7">
         <v>3145</v>
@@ -6763,13 +6769,13 @@
         <v>2073673</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M23" s="7">
         <v>5028</v>
@@ -6778,13 +6784,13 @@
         <v>3787249</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P2B_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2B_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A33DEA2A-30C3-403B-9D4C-E44AE861480A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{885FE20B-C6BB-4E85-BA6A-A7D588E95BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{59EAB1EF-92C6-41C9-949C-9B8E10D00631}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D9072267-2FF5-4429-A929-EAAE9BC10FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="519">
   <si>
     <t>Hogares con personas que requieren dedicación o cuidados especiales en 2007 (Tasa respuesta: 80,4%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>19,32%</t>
   </si>
   <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
   </si>
   <si>
     <t>15,95%</t>
   </si>
   <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
   </si>
   <si>
     <t>17,5%</t>
   </si>
   <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>80,68%</t>
   </si>
   <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
   </si>
   <si>
     <t>84,05%</t>
   </si>
   <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
   </si>
   <si>
     <t>82,5%</t>
   </si>
   <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>29,52%</t>
   </si>
   <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
   </si>
   <si>
     <t>34,49%</t>
   </si>
   <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
   </si>
   <si>
     <t>32,18%</t>
   </si>
   <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
   </si>
   <si>
     <t>70,48%</t>
   </si>
   <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
   </si>
   <si>
     <t>65,51%</t>
   </si>
   <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
   </si>
   <si>
     <t>67,82%</t>
   </si>
   <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +197,55 @@
     <t>26,97%</t>
   </si>
   <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
   </si>
   <si>
     <t>29,99%</t>
   </si>
   <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
   </si>
   <si>
     <t>28,6%</t>
   </si>
   <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
   </si>
   <si>
     <t>73,03%</t>
   </si>
   <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
   </si>
   <si>
     <t>70,01%</t>
   </si>
   <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
   </si>
   <si>
     <t>71,4%</t>
   </si>
   <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,55 +254,55 @@
     <t>16,14%</t>
   </si>
   <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
   </si>
   <si>
     <t>19,42%</t>
   </si>
   <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
   </si>
   <si>
     <t>17,79%</t>
   </si>
   <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
   </si>
   <si>
     <t>83,86%</t>
   </si>
   <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
   </si>
   <si>
     <t>80,58%</t>
   </si>
   <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
   </si>
   <si>
     <t>82,21%</t>
   </si>
   <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -311,55 +311,55 @@
     <t>14,65%</t>
   </si>
   <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
   </si>
   <si>
     <t>20,73%</t>
   </si>
   <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
   </si>
   <si>
     <t>17,81%</t>
   </si>
   <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
   </si>
   <si>
     <t>85,35%</t>
   </si>
   <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
   </si>
   <si>
     <t>79,27%</t>
   </si>
   <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
   </si>
   <si>
     <t>82,19%</t>
   </si>
   <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -368,109 +368,109 @@
     <t>20,08%</t>
   </si>
   <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
   </si>
   <si>
     <t>27,95%</t>
   </si>
   <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
   </si>
   <si>
     <t>24,6%</t>
   </si>
   <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
   </si>
   <si>
     <t>79,92%</t>
   </si>
   <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
   </si>
   <si>
     <t>72,05%</t>
   </si>
   <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
   </si>
   <si>
     <t>75,4%</t>
   </si>
   <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
   </si>
   <si>
     <t>21,83%</t>
   </si>
   <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
   </si>
   <si>
     <t>26,19%</t>
   </si>
   <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
   </si>
   <si>
     <t>24,18%</t>
   </si>
   <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
   </si>
   <si>
     <t>78,17%</t>
   </si>
   <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
   </si>
   <si>
     <t>73,81%</t>
   </si>
   <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
   </si>
   <si>
     <t>75,82%</t>
   </si>
   <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -482,115 +482,118 @@
     <t>50,18%</t>
   </si>
   <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
   </si>
   <si>
     <t>51,9%</t>
   </si>
   <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
   </si>
   <si>
     <t>51,11%</t>
   </si>
   <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
   </si>
   <si>
     <t>49,82%</t>
   </si>
   <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
   </si>
   <si>
     <t>48,1%</t>
   </si>
   <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
   </si>
   <si>
     <t>48,89%</t>
   </si>
   <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
   </si>
   <si>
     <t>55,69%</t>
   </si>
   <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
   </si>
   <si>
     <t>76,1%</t>
   </si>
   <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
   </si>
   <si>
     <t>66,32%</t>
   </si>
   <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
   </si>
   <si>
     <t>44,31%</t>
   </si>
   <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
   </si>
   <si>
     <t>23,9%</t>
   </si>
   <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
   </si>
   <si>
     <t>33,68%</t>
   </si>
   <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
   </si>
   <si>
     <t>72,87%</t>
   </si>
   <si>
-    <t>69,31%</t>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
   </si>
   <si>
     <t>76,81%</t>
@@ -599,28 +602,31 @@
     <t>73,29%</t>
   </si>
   <si>
-    <t>80,41%</t>
+    <t>80,19%</t>
   </si>
   <si>
     <t>74,92%</t>
   </si>
   <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
   </si>
   <si>
     <t>27,13%</t>
   </si>
   <si>
-    <t>30,69%</t>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
   </si>
   <si>
     <t>23,19%</t>
   </si>
   <si>
-    <t>19,59%</t>
+    <t>19,81%</t>
   </si>
   <si>
     <t>26,71%</t>
@@ -629,286 +635,289 @@
     <t>25,08%</t>
   </si>
   <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
   </si>
   <si>
     <t>55,1%</t>
   </si>
   <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
   </si>
   <si>
     <t>44,68%</t>
   </si>
   <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
   </si>
   <si>
     <t>49,71%</t>
   </si>
   <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
   </si>
   <si>
     <t>44,9%</t>
   </si>
   <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
+    <t>40,13%</t>
   </si>
   <si>
     <t>55,32%</t>
   </si>
   <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
   </si>
   <si>
     <t>50,29%</t>
   </si>
   <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
   </si>
   <si>
     <t>30,15%</t>
   </si>
   <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
   </si>
   <si>
     <t>32,11%</t>
   </si>
   <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
   </si>
   <si>
     <t>31,19%</t>
   </si>
   <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
   </si>
   <si>
     <t>69,85%</t>
   </si>
   <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
   </si>
   <si>
     <t>67,89%</t>
   </si>
   <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
   </si>
   <si>
     <t>68,81%</t>
   </si>
   <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
   </si>
   <si>
     <t>37,12%</t>
   </si>
   <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
   </si>
   <si>
     <t>38,78%</t>
   </si>
   <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
   </si>
   <si>
     <t>38,06%</t>
   </si>
   <si>
-    <t>41,01%</t>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
   </si>
   <si>
     <t>62,88%</t>
   </si>
   <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
   </si>
   <si>
     <t>61,22%</t>
   </si>
   <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
   </si>
   <si>
     <t>61,94%</t>
   </si>
   <si>
-    <t>58,99%</t>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
   </si>
   <si>
     <t>51,8%</t>
   </si>
   <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
   </si>
   <si>
     <t>54,16%</t>
   </si>
   <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
   </si>
   <si>
     <t>53,06%</t>
   </si>
   <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
   </si>
   <si>
     <t>48,2%</t>
   </si>
   <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
   </si>
   <si>
     <t>45,84%</t>
   </si>
   <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
   </si>
   <si>
     <t>46,94%</t>
   </si>
   <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2015 (Tasa respuesta: 78,58%)</t>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2016 (Tasa respuesta: 78,58%)</t>
   </si>
   <si>
     <t>36,73%</t>
   </si>
   <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
   </si>
   <si>
     <t>46,55%</t>
   </si>
   <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
   </si>
   <si>
     <t>41,83%</t>
   </si>
   <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
   </si>
   <si>
     <t>63,27%</t>
   </si>
   <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
   </si>
   <si>
     <t>53,45%</t>
   </si>
   <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
   </si>
   <si>
     <t>58,17%</t>
   </si>
   <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
   </si>
   <si>
     <t>56,14%</t>
   </si>
   <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
   </si>
   <si>
     <t>65,27%</t>
@@ -917,31 +926,31 @@
     <t>60,66%</t>
   </si>
   <si>
-    <t>69,81%</t>
+    <t>69,42%</t>
   </si>
   <si>
     <t>61,29%</t>
   </si>
   <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
   </si>
   <si>
     <t>43,86%</t>
   </si>
   <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
   </si>
   <si>
     <t>34,73%</t>
   </si>
   <si>
-    <t>30,19%</t>
+    <t>30,58%</t>
   </si>
   <si>
     <t>39,34%</t>
@@ -950,268 +959,274 @@
     <t>38,71%</t>
   </si>
   <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
   </si>
   <si>
     <t>61,17%</t>
   </si>
   <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
   </si>
   <si>
     <t>65,01%</t>
   </si>
   <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
   </si>
   <si>
     <t>63,2%</t>
   </si>
   <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
   </si>
   <si>
     <t>38,83%</t>
   </si>
   <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
   </si>
   <si>
     <t>34,99%</t>
   </si>
   <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
   </si>
   <si>
     <t>36,8%</t>
   </si>
   <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
   </si>
   <si>
     <t>40,98%</t>
   </si>
   <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
   </si>
   <si>
     <t>40,45%</t>
   </si>
   <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
   </si>
   <si>
     <t>40,71%</t>
   </si>
   <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
   </si>
   <si>
     <t>59,02%</t>
   </si>
   <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
   </si>
   <si>
     <t>59,55%</t>
   </si>
   <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
   </si>
   <si>
     <t>59,29%</t>
   </si>
   <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
   </si>
   <si>
     <t>23,75%</t>
   </si>
   <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
   </si>
   <si>
     <t>26,63%</t>
   </si>
   <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
   </si>
   <si>
     <t>25,34%</t>
   </si>
   <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
   </si>
   <si>
     <t>76,25%</t>
   </si>
   <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
   </si>
   <si>
     <t>73,37%</t>
   </si>
   <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
   </si>
   <si>
     <t>74,66%</t>
   </si>
   <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
   </si>
   <si>
     <t>28,54%</t>
   </si>
   <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
   </si>
   <si>
     <t>38,23%</t>
   </si>
   <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
   </si>
   <si>
     <t>34,04%</t>
   </si>
   <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
+    <t>36,75%</t>
   </si>
   <si>
     <t>71,46%</t>
   </si>
   <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
   </si>
   <si>
     <t>61,77%</t>
   </si>
   <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
   </si>
   <si>
     <t>65,96%</t>
   </si>
   <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
+    <t>63,25%</t>
   </si>
   <si>
     <t>41,62%</t>
   </si>
   <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
   </si>
   <si>
     <t>46,96%</t>
   </si>
   <si>
-    <t>45,08%</t>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
   </si>
   <si>
     <t>44,51%</t>
   </si>
   <si>
-    <t>43,19%</t>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
   </si>
   <si>
     <t>58,38%</t>
   </si>
   <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
   </si>
   <si>
     <t>53,04%</t>
   </si>
   <si>
-    <t>54,92%</t>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
   </si>
   <si>
     <t>55,49%</t>
   </si>
   <si>
-    <t>56,81%</t>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
   </si>
   <si>
     <t>Hogares con personas que requieren dedicación o cuidados especiales en 2023 (Tasa respuesta: 77,47%)</t>
@@ -1992,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13FFC12C-27A6-44D5-A977-DD12FC93D0A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ECCB1F2-C985-49C5-B657-6423E73A7AE0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3211,7 +3226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6658C30-D665-4008-953D-ECA8C4E13C52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E678DD8-3D33-46DF-A61C-957B9A63F9F9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3651,7 +3666,7 @@
         <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>479</v>
@@ -3660,13 +3675,13 @@
         <v>510424</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>910</v>
@@ -3675,13 +3690,13 @@
         <v>959181</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,13 +3711,13 @@
         <v>167042</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>52</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>144</v>
@@ -3711,13 +3726,13 @@
         <v>154132</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>302</v>
@@ -3726,13 +3741,13 @@
         <v>321174</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,13 +3815,13 @@
         <v>272517</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>209</v>
@@ -3815,13 +3830,13 @@
         <v>236909</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>452</v>
@@ -3830,13 +3845,13 @@
         <v>509425</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,13 +3866,13 @@
         <v>222110</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="H14" s="7">
         <v>254</v>
@@ -3866,13 +3881,13 @@
         <v>293327</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M14" s="7">
         <v>454</v>
@@ -3881,13 +3896,13 @@
         <v>515437</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,13 +3970,13 @@
         <v>108708</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H16" s="7">
         <v>119</v>
@@ -3970,13 +3985,13 @@
         <v>131117</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M16" s="7">
         <v>220</v>
@@ -3985,13 +4000,13 @@
         <v>239825</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,13 +4021,13 @@
         <v>251804</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H17" s="7">
         <v>252</v>
@@ -4021,13 +4036,13 @@
         <v>277213</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M17" s="7">
         <v>479</v>
@@ -4036,13 +4051,13 @@
         <v>529017</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,13 +4125,13 @@
         <v>206341</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H19" s="7">
         <v>264</v>
@@ -4125,13 +4140,13 @@
         <v>285711</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M19" s="7">
         <v>447</v>
@@ -4140,13 +4155,13 @@
         <v>492052</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,13 +4176,13 @@
         <v>349563</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H20" s="7">
         <v>424</v>
@@ -4176,13 +4191,13 @@
         <v>451055</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M20" s="7">
         <v>741</v>
@@ -4191,13 +4206,13 @@
         <v>800618</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>48</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,28 +4280,28 @@
         <v>1423649</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H22" s="7">
         <v>1583</v>
       </c>
       <c r="I22" s="7">
-        <v>1702449</v>
+        <v>1702448</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M22" s="7">
         <v>2918</v>
@@ -4295,13 +4310,13 @@
         <v>3126097</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,13 +4331,13 @@
         <v>1324573</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H23" s="7">
         <v>1330</v>
@@ -4331,13 +4346,13 @@
         <v>1441133</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M23" s="7">
         <v>2563</v>
@@ -4346,13 +4361,13 @@
         <v>2765706</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4379,7 +4394,7 @@
         <v>2913</v>
       </c>
       <c r="I24" s="7">
-        <v>3143582</v>
+        <v>3143581</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -4430,7 +4445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97969516-7F92-43C8-86ED-03B2B46D4F51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA88604B-3389-4EDE-807D-FCFADB9CD886}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4447,7 +4462,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4554,13 +4569,13 @@
         <v>82790</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H4" s="7">
         <v>113</v>
@@ -4569,13 +4584,13 @@
         <v>113241</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M4" s="7">
         <v>188</v>
@@ -4584,13 +4599,13 @@
         <v>196031</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +4620,13 @@
         <v>142608</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H5" s="7">
         <v>134</v>
@@ -4620,13 +4635,13 @@
         <v>130044</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M5" s="7">
         <v>270</v>
@@ -4635,13 +4650,13 @@
         <v>272652</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,13 +4724,13 @@
         <v>189753</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H7" s="7">
         <v>291</v>
@@ -4724,28 +4739,28 @@
         <v>285110</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M7" s="7">
         <v>473</v>
       </c>
       <c r="N7" s="7">
-        <v>474863</v>
+        <v>474864</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,13 +4775,13 @@
         <v>148259</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H8" s="7">
         <v>158</v>
@@ -4775,13 +4790,13 @@
         <v>151708</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="M8" s="7">
         <v>300</v>
@@ -4790,13 +4805,13 @@
         <v>299966</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4838,7 +4853,7 @@
         <v>773</v>
       </c>
       <c r="N9" s="7">
-        <v>774829</v>
+        <v>774830</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4864,13 +4879,13 @@
         <v>320621</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H10" s="7">
         <v>383</v>
@@ -4879,13 +4894,13 @@
         <v>382375</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="M10" s="7">
         <v>689</v>
@@ -4894,13 +4909,13 @@
         <v>702996</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,13 +4930,13 @@
         <v>203517</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H11" s="7">
         <v>208</v>
@@ -4930,13 +4945,13 @@
         <v>205827</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M11" s="7">
         <v>405</v>
@@ -4945,13 +4960,13 @@
         <v>409344</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,13 +5034,13 @@
         <v>199249</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="H13" s="7">
         <v>186</v>
@@ -5034,13 +5049,13 @@
         <v>201266</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="M13" s="7">
         <v>366</v>
@@ -5049,13 +5064,13 @@
         <v>400515</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,13 +5085,13 @@
         <v>287005</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H14" s="7">
         <v>275</v>
@@ -5085,13 +5100,13 @@
         <v>296300</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M14" s="7">
         <v>536</v>
@@ -5100,13 +5115,13 @@
         <v>583305</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,13 +5189,13 @@
         <v>81199</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H16" s="7">
         <v>97</v>
@@ -5189,13 +5204,13 @@
         <v>112635</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M16" s="7">
         <v>170</v>
@@ -5204,13 +5219,13 @@
         <v>193834</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,13 +5240,13 @@
         <v>260629</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H17" s="7">
         <v>273</v>
@@ -5240,13 +5255,13 @@
         <v>310332</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="M17" s="7">
         <v>503</v>
@@ -5255,13 +5270,13 @@
         <v>570961</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,13 +5344,13 @@
         <v>166507</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="H19" s="7">
         <v>236</v>
@@ -5344,13 +5359,13 @@
         <v>292190</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M19" s="7">
         <v>416</v>
@@ -5359,13 +5374,13 @@
         <v>458697</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>366</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5380,13 +5395,13 @@
         <v>416857</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="H20" s="7">
         <v>407</v>
@@ -5395,13 +5410,13 @@
         <v>472095</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M20" s="7">
         <v>846</v>
@@ -5410,13 +5425,13 @@
         <v>888952</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>376</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5499,13 @@
         <v>1040119</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H22" s="7">
         <v>1306</v>
@@ -5499,13 +5514,13 @@
         <v>1386818</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>161</v>
+        <v>383</v>
       </c>
       <c r="M22" s="7">
         <v>2302</v>
@@ -5514,13 +5529,13 @@
         <v>2426937</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,13 +5550,13 @@
         <v>1458874</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="H23" s="7">
         <v>1455</v>
@@ -5550,13 +5565,13 @@
         <v>1566305</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>152</v>
+        <v>391</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="M23" s="7">
         <v>2860</v>
@@ -5565,13 +5580,13 @@
         <v>3025179</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>285</v>
+        <v>394</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5649,7 +5664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221AD72F-B1B4-4EC4-B0C2-1281C56826D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E1FE61-3332-4961-857B-08F7EE9950D4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5666,7 +5681,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5773,13 +5788,13 @@
         <v>27759</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -5788,13 +5803,13 @@
         <v>40115</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
@@ -5803,13 +5818,13 @@
         <v>67873</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,13 +5839,13 @@
         <v>131820</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="H5" s="7">
         <v>73</v>
@@ -5839,13 +5854,13 @@
         <v>121346</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="M5" s="7">
         <v>128</v>
@@ -5854,13 +5869,13 @@
         <v>253167</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,13 +5943,13 @@
         <v>56817</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="H7" s="7">
         <v>106</v>
@@ -5943,13 +5958,13 @@
         <v>112012</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="M7" s="7">
         <v>152</v>
@@ -5958,13 +5973,13 @@
         <v>168829</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,13 +5994,13 @@
         <v>135398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="H8" s="7">
         <v>205</v>
@@ -5994,13 +6009,13 @@
         <v>224412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="M8" s="7">
         <v>304</v>
@@ -6009,13 +6024,13 @@
         <v>359810</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,13 +6098,13 @@
         <v>131382</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="H10" s="7">
         <v>206</v>
@@ -6098,13 +6113,13 @@
         <v>154601</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="M10" s="7">
         <v>330</v>
@@ -6113,13 +6128,13 @@
         <v>285984</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,13 +6149,13 @@
         <v>265144</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="H11" s="7">
         <v>528</v>
@@ -6149,13 +6164,13 @@
         <v>375614</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="M11" s="7">
         <v>787</v>
@@ -6164,13 +6179,13 @@
         <v>640757</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,13 +6253,13 @@
         <v>116094</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="H13" s="7">
         <v>186</v>
@@ -6253,13 +6268,13 @@
         <v>124560</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="M13" s="7">
         <v>295</v>
@@ -6268,13 +6283,13 @@
         <v>240654</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,13 +6304,13 @@
         <v>344017</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="H14" s="7">
         <v>625</v>
@@ -6304,13 +6319,13 @@
         <v>408770</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="M14" s="7">
         <v>976</v>
@@ -6319,13 +6334,13 @@
         <v>752787</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,13 +6408,13 @@
         <v>68538</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="H16" s="7">
         <v>123</v>
@@ -6408,13 +6423,13 @@
         <v>76423</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="M16" s="7">
         <v>198</v>
@@ -6423,13 +6438,13 @@
         <v>144961</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,13 +6459,13 @@
         <v>281969</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="H17" s="7">
         <v>530</v>
@@ -6459,13 +6474,13 @@
         <v>310388</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="M17" s="7">
         <v>838</v>
@@ -6474,13 +6489,13 @@
         <v>592357</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6548,13 +6563,13 @@
         <v>136697</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="H19" s="7">
         <v>519</v>
@@ -6563,13 +6578,13 @@
         <v>391144</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="M19" s="7">
         <v>729</v>
@@ -6578,13 +6593,13 @@
         <v>527841</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6599,13 +6614,13 @@
         <v>555229</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="H20" s="7">
         <v>1184</v>
@@ -6614,13 +6629,13 @@
         <v>633142</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="M20" s="7">
         <v>1995</v>
@@ -6629,13 +6644,13 @@
         <v>1188370</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6703,13 +6718,13 @@
         <v>537288</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="H22" s="7">
         <v>1166</v>
@@ -6718,13 +6733,13 @@
         <v>898854</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="M22" s="7">
         <v>1745</v>
@@ -6733,13 +6748,13 @@
         <v>1436142</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,13 +6769,13 @@
         <v>1713576</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="H23" s="7">
         <v>3145</v>
@@ -6769,13 +6784,13 @@
         <v>2073673</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="M23" s="7">
         <v>5028</v>
@@ -6784,13 +6799,13 @@
         <v>3787249</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P2B_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2B_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{885FE20B-C6BB-4E85-BA6A-A7D588E95BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C80D5CFE-ACC5-49B5-B019-73B35C071FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D9072267-2FF5-4429-A929-EAAE9BC10FBD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{684EF6A8-E9F2-4DF7-9FA0-83A8DB6B71AF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="519">
-  <si>
-    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2007 (Tasa respuesta: 80,4%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="512">
+  <si>
+    <t>Hogares según si tienen personas que requieren dedicación o cuidados especiales en 2007 (Tasa respuesta: 80,4%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,28 +77,28 @@
     <t>19,32%</t>
   </si>
   <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
   </si>
   <si>
     <t>15,95%</t>
   </si>
   <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
   </si>
   <si>
     <t>17,5%</t>
   </si>
   <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>80,68%</t>
   </si>
   <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
   </si>
   <si>
     <t>84,05%</t>
   </si>
   <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
   </si>
   <si>
     <t>82,5%</t>
   </si>
   <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1210 +140,1195 @@
     <t>29,52%</t>
   </si>
   <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
   </si>
   <si>
     <t>34,49%</t>
   </si>
   <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
   </si>
   <si>
     <t>32,18%</t>
   </si>
   <si>
-    <t>29,13%</t>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas que requieren dedicación o cuidados especiales en 2012 (Tasa respuesta: 84,23%)</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas que requieren dedicación o cuidados especiales en 2016 (Tasa respuesta: 78,58%)</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
   </si>
   <si>
     <t>35,38%</t>
   </si>
   <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas que requieren dedicación o cuidados especiales en 2023 (Tasa respuesta: 77,47%)</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
   </si>
   <si>
     <t>14,99%</t>
   </si>
   <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
   </si>
   <si>
     <t>85,01%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2012 (Tasa respuesta: 84,23%)</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
   </si>
   <si>
     <t>27,31%</t>
   </si>
   <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
   </si>
   <si>
     <t>72,69%</t>
   </si>
   <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2016 (Tasa respuesta: 78,58%)</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>Hogares con personas que requieren dedicación o cuidados especiales en 2023 (Tasa respuesta: 77,47%)</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
     <t>33,13%</t>
   </si>
   <si>
-    <t>28,39%</t>
+    <t>28,25%</t>
   </si>
   <si>
     <t>38,43%</t>
@@ -1352,19 +1337,13 @@
     <t>29,16%</t>
   </si>
   <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
     <t>30,86%</t>
   </si>
   <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
   </si>
   <si>
     <t>66,87%</t>
@@ -1373,46 +1352,43 @@
     <t>61,57%</t>
   </si>
   <si>
-    <t>71,61%</t>
+    <t>71,75%</t>
   </si>
   <si>
     <t>70,84%</t>
   </si>
   <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
     <t>69,14%</t>
   </si>
   <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
   </si>
   <si>
     <t>25,23%</t>
   </si>
   <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
   </si>
   <si>
     <t>23,36%</t>
   </si>
   <si>
-    <t>20,48%</t>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
   </si>
   <si>
     <t>24,22%</t>
   </si>
   <si>
-    <t>21,66%</t>
+    <t>21,68%</t>
   </si>
   <si>
     <t>26,82%</t>
@@ -1421,16 +1397,19 @@
     <t>74,77%</t>
   </si>
   <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
   </si>
   <si>
     <t>76,64%</t>
   </si>
   <si>
-    <t>79,52%</t>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
   </si>
   <si>
     <t>75,78%</t>
@@ -1439,163 +1418,163 @@
     <t>73,18%</t>
   </si>
   <si>
-    <t>78,34%</t>
+    <t>78,32%</t>
   </si>
   <si>
     <t>19,55%</t>
   </si>
   <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
   </si>
   <si>
     <t>19,76%</t>
   </si>
   <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
   </si>
   <si>
     <t>19,66%</t>
   </si>
   <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
   </si>
   <si>
     <t>80,45%</t>
   </si>
   <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
   </si>
   <si>
     <t>80,24%</t>
   </si>
   <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
   </si>
   <si>
     <t>80,34%</t>
   </si>
   <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
   </si>
   <si>
     <t>38,19%</t>
   </si>
   <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
   </si>
   <si>
     <t>30,76%</t>
   </si>
   <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
   </si>
   <si>
     <t>61,81%</t>
   </si>
   <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
   </si>
   <si>
     <t>69,24%</t>
   </si>
   <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
   </si>
   <si>
     <t>23,87%</t>
   </si>
   <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
   </si>
   <si>
     <t>30,24%</t>
   </si>
   <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
   </si>
   <si>
     <t>27,49%</t>
   </si>
   <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
   </si>
   <si>
     <t>76,13%</t>
   </si>
   <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
   </si>
   <si>
     <t>69,76%</t>
   </si>
   <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
   </si>
   <si>
     <t>72,51%</t>
   </si>
   <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
   </si>
 </sst>
 </file>
@@ -2007,7 +1986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ECCB1F2-C985-49C5-B657-6423E73A7AE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C144350D-5AC5-492F-8736-573CF09EB4F7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3226,7 +3205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E678DD8-3D33-46DF-A61C-957B9A63F9F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21722608-5C38-4F2B-AF02-DCE24B058765}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3872,7 +3851,7 @@
         <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>254</v>
@@ -3881,13 +3860,13 @@
         <v>293327</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>454</v>
@@ -3896,13 +3875,13 @@
         <v>515437</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3970,13 +3949,13 @@
         <v>108708</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>119</v>
@@ -3985,13 +3964,13 @@
         <v>131117</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>220</v>
@@ -4000,13 +3979,13 @@
         <v>239825</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,13 +4000,13 @@
         <v>251804</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>252</v>
@@ -4036,13 +4015,13 @@
         <v>277213</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>479</v>
@@ -4051,13 +4030,13 @@
         <v>529017</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,13 +4104,13 @@
         <v>206341</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>264</v>
@@ -4140,13 +4119,13 @@
         <v>285711</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>447</v>
@@ -4155,13 +4134,13 @@
         <v>492052</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4176,13 +4155,13 @@
         <v>349563</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H20" s="7">
         <v>424</v>
@@ -4191,13 +4170,13 @@
         <v>451055</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M20" s="7">
         <v>741</v>
@@ -4206,13 +4185,13 @@
         <v>800618</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,13 +4259,13 @@
         <v>1423649</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>1583</v>
@@ -4295,13 +4274,13 @@
         <v>1702448</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M22" s="7">
         <v>2918</v>
@@ -4310,13 +4289,13 @@
         <v>3126097</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,13 +4310,13 @@
         <v>1324573</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H23" s="7">
         <v>1330</v>
@@ -4346,13 +4325,13 @@
         <v>1441133</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M23" s="7">
         <v>2563</v>
@@ -4361,13 +4340,13 @@
         <v>2765706</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,7 +4424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA88604B-3389-4EDE-807D-FCFADB9CD886}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10EB9494-235E-4992-AFE0-3C45DB3B83C2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4462,7 +4441,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4569,13 +4548,13 @@
         <v>82790</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H4" s="7">
         <v>113</v>
@@ -4584,13 +4563,13 @@
         <v>113241</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M4" s="7">
         <v>188</v>
@@ -4599,13 +4578,13 @@
         <v>196031</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,13 +4599,13 @@
         <v>142608</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H5" s="7">
         <v>134</v>
@@ -4635,13 +4614,13 @@
         <v>130044</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M5" s="7">
         <v>270</v>
@@ -4650,13 +4629,13 @@
         <v>272652</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,13 +4703,13 @@
         <v>189753</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H7" s="7">
         <v>291</v>
@@ -4739,13 +4718,13 @@
         <v>285110</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M7" s="7">
         <v>473</v>
@@ -4754,13 +4733,13 @@
         <v>474864</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4775,13 +4754,13 @@
         <v>148259</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H8" s="7">
         <v>158</v>
@@ -4790,13 +4769,13 @@
         <v>151708</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M8" s="7">
         <v>300</v>
@@ -4805,13 +4784,13 @@
         <v>299966</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,13 +4858,13 @@
         <v>320621</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H10" s="7">
         <v>383</v>
@@ -4894,13 +4873,13 @@
         <v>382375</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M10" s="7">
         <v>689</v>
@@ -4909,13 +4888,13 @@
         <v>702996</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4930,13 +4909,13 @@
         <v>203517</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H11" s="7">
         <v>208</v>
@@ -4945,13 +4924,13 @@
         <v>205827</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M11" s="7">
         <v>405</v>
@@ -4960,13 +4939,13 @@
         <v>409344</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,13 +5013,13 @@
         <v>199249</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H13" s="7">
         <v>186</v>
@@ -5049,13 +5028,13 @@
         <v>201266</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M13" s="7">
         <v>366</v>
@@ -5064,13 +5043,13 @@
         <v>400515</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5085,13 +5064,13 @@
         <v>287005</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H14" s="7">
         <v>275</v>
@@ -5100,13 +5079,13 @@
         <v>296300</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M14" s="7">
         <v>536</v>
@@ -5115,13 +5094,13 @@
         <v>583305</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,13 +5168,13 @@
         <v>81199</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H16" s="7">
         <v>97</v>
@@ -5204,13 +5183,13 @@
         <v>112635</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>347</v>
+        <v>196</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>348</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>349</v>
+        <v>224</v>
       </c>
       <c r="M16" s="7">
         <v>170</v>
@@ -5219,13 +5198,13 @@
         <v>193834</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5240,13 +5219,13 @@
         <v>260629</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="H17" s="7">
         <v>273</v>
@@ -5255,13 +5234,13 @@
         <v>310332</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>356</v>
+        <v>186</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>357</v>
+        <v>233</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M17" s="7">
         <v>503</v>
@@ -5270,13 +5249,13 @@
         <v>570961</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,13 +5323,13 @@
         <v>166507</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H19" s="7">
         <v>236</v>
@@ -5359,13 +5338,13 @@
         <v>292190</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M19" s="7">
         <v>416</v>
@@ -5374,13 +5353,13 @@
         <v>458697</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>366</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5395,13 +5374,13 @@
         <v>416857</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="H20" s="7">
         <v>407</v>
@@ -5410,13 +5389,13 @@
         <v>472095</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M20" s="7">
         <v>846</v>
@@ -5425,13 +5404,13 @@
         <v>888952</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,13 +5478,13 @@
         <v>1040119</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="H22" s="7">
         <v>1306</v>
@@ -5514,13 +5493,13 @@
         <v>1386818</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="M22" s="7">
         <v>2302</v>
@@ -5529,13 +5508,13 @@
         <v>2426937</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,13 +5529,13 @@
         <v>1458874</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="H23" s="7">
         <v>1455</v>
@@ -5565,13 +5544,13 @@
         <v>1566305</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>390</v>
+        <v>208</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="M23" s="7">
         <v>2860</v>
@@ -5580,13 +5559,13 @@
         <v>3025179</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,7 +5643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E1FE61-3332-4961-857B-08F7EE9950D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2036CB56-AFAC-4E40-931F-5A2CE1DF0637}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5681,7 +5660,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5788,13 +5767,13 @@
         <v>27759</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -5803,13 +5782,13 @@
         <v>40115</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
@@ -5818,13 +5797,13 @@
         <v>67873</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,13 +5818,13 @@
         <v>131820</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H5" s="7">
         <v>73</v>
@@ -5854,13 +5833,13 @@
         <v>121346</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="M5" s="7">
         <v>128</v>
@@ -5869,13 +5848,13 @@
         <v>253167</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5943,13 +5922,13 @@
         <v>56817</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>417</v>
+        <v>301</v>
       </c>
       <c r="H7" s="7">
         <v>106</v>
@@ -5958,13 +5937,13 @@
         <v>112012</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M7" s="7">
         <v>152</v>
@@ -5973,13 +5952,13 @@
         <v>168829</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5994,13 +5973,13 @@
         <v>135398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>425</v>
+        <v>293</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="H8" s="7">
         <v>205</v>
@@ -6009,13 +5988,13 @@
         <v>224412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="M8" s="7">
         <v>304</v>
@@ -6024,13 +6003,13 @@
         <v>359810</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,13 +6077,13 @@
         <v>131382</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="H10" s="7">
         <v>206</v>
@@ -6113,13 +6092,13 @@
         <v>154601</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>437</v>
+        <v>110</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="M10" s="7">
         <v>330</v>
@@ -6128,13 +6107,13 @@
         <v>285984</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6149,13 +6128,13 @@
         <v>265144</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="H11" s="7">
         <v>528</v>
@@ -6164,13 +6143,13 @@
         <v>375614</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>447</v>
+        <v>118</v>
       </c>
       <c r="M11" s="7">
         <v>787</v>
@@ -6179,13 +6158,13 @@
         <v>640757</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,13 +6232,13 @@
         <v>116094</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="H13" s="7">
         <v>186</v>
@@ -6268,13 +6247,13 @@
         <v>124560</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="M13" s="7">
         <v>295</v>
@@ -6283,13 +6262,13 @@
         <v>240654</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6304,13 +6283,13 @@
         <v>344017</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="H14" s="7">
         <v>625</v>
@@ -6319,13 +6298,13 @@
         <v>408770</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="M14" s="7">
         <v>976</v>
@@ -6334,13 +6313,13 @@
         <v>752787</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6408,13 +6387,13 @@
         <v>68538</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H16" s="7">
         <v>123</v>
@@ -6423,13 +6402,13 @@
         <v>76423</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="M16" s="7">
         <v>198</v>
@@ -6438,13 +6417,13 @@
         <v>144961</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6459,13 +6438,13 @@
         <v>281969</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="H17" s="7">
         <v>530</v>
@@ -6474,13 +6453,13 @@
         <v>310388</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="M17" s="7">
         <v>838</v>
@@ -6489,13 +6468,13 @@
         <v>592357</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,13 +6542,13 @@
         <v>136697</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="H19" s="7">
         <v>519</v>
@@ -6578,13 +6557,13 @@
         <v>391144</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="M19" s="7">
         <v>729</v>
@@ -6593,13 +6572,13 @@
         <v>527841</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6614,13 +6593,13 @@
         <v>555229</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="H20" s="7">
         <v>1184</v>
@@ -6629,13 +6608,13 @@
         <v>633142</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="M20" s="7">
         <v>1995</v>
@@ -6644,13 +6623,13 @@
         <v>1188370</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,13 +6697,13 @@
         <v>537288</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="H22" s="7">
         <v>1166</v>
@@ -6733,13 +6712,13 @@
         <v>898854</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="M22" s="7">
         <v>1745</v>
@@ -6748,13 +6727,13 @@
         <v>1436142</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6769,13 +6748,13 @@
         <v>1713576</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="H23" s="7">
         <v>3145</v>
@@ -6784,13 +6763,13 @@
         <v>2073673</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="M23" s="7">
         <v>5028</v>
@@ -6799,13 +6778,13 @@
         <v>3787249</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P2B_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2B_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C80D5CFE-ACC5-49B5-B019-73B35C071FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E9CE991-1284-429A-BA07-DC96A7BB067C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{684EF6A8-E9F2-4DF7-9FA0-83A8DB6B71AF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1B732909-0350-40BC-A4BE-BFF78E965D71}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="581">
   <si>
     <t>Hogares según si tienen personas que requieren dedicación o cuidados especiales en 2007 (Tasa respuesta: 80,4%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>29,52%</t>
@@ -191,7 +191,7 @@
     <t>70,85%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>26,97%</t>
@@ -248,7 +248,7 @@
     <t>74,2%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>16,14%</t>
@@ -305,7 +305,7 @@
     <t>84,7%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>14,65%</t>
@@ -362,61 +362,118 @@
     <t>84,97%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
   </si>
   <si>
     <t>21,83%</t>
@@ -749,58 +806,112 @@
     <t>72,3%</t>
   </si>
   <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
   </si>
   <si>
     <t>51,8%</t>
@@ -977,9 +1088,6 @@
     <t>65,1%</t>
   </si>
   <si>
-    <t>65,01%</t>
-  </si>
-  <si>
     <t>61,21%</t>
   </si>
   <si>
@@ -1004,9 +1112,6 @@
     <t>43,63%</t>
   </si>
   <si>
-    <t>34,99%</t>
-  </si>
-  <si>
     <t>31,21%</t>
   </si>
   <si>
@@ -1118,58 +1223,112 @@
     <t>77,69%</t>
   </si>
   <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
   </si>
   <si>
     <t>41,62%</t>
@@ -1178,9 +1337,6 @@
     <t>39,59%</t>
   </si>
   <si>
-    <t>43,77%</t>
-  </si>
-  <si>
     <t>45,03%</t>
   </si>
   <si>
@@ -1199,9 +1355,6 @@
     <t>58,38%</t>
   </si>
   <si>
-    <t>56,23%</t>
-  </si>
-  <si>
     <t>60,41%</t>
   </si>
   <si>
@@ -1223,358 +1376,412 @@
     <t>Hogares según si tienen personas que requieren dedicación o cuidados especiales en 2023 (Tasa respuesta: 77,47%)</t>
   </si>
   <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
   </si>
   <si>
     <t>23,87%</t>
   </si>
   <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
   </si>
   <si>
     <t>76,13%</t>
   </si>
   <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
   </si>
 </sst>
 </file>
@@ -1986,8 +2193,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C144350D-5AC5-492F-8736-573CF09EB4F7}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B96311-FCF2-44B4-8AF3-3324F27BF2F0}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2498,7 +2705,7 @@
         <v>820</v>
       </c>
       <c r="N11" s="7">
-        <v>855732</v>
+        <v>855731</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2549,7 +2756,7 @@
         <v>1146</v>
       </c>
       <c r="N12" s="7">
-        <v>1198420</v>
+        <v>1198419</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2879,10 +3086,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="D19" s="7">
-        <v>100709</v>
+        <v>41313</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2894,10 +3101,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>183</v>
+        <v>88</v>
       </c>
       <c r="I19" s="7">
-        <v>189154</v>
+        <v>81112</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2909,10 +3116,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>288</v>
+        <v>131</v>
       </c>
       <c r="N19" s="7">
-        <v>289864</v>
+        <v>122425</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2930,10 +3137,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>417</v>
+        <v>259</v>
       </c>
       <c r="D20" s="7">
-        <v>400823</v>
+        <v>250336</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2945,10 +3152,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>478</v>
+        <v>283</v>
       </c>
       <c r="I20" s="7">
-        <v>487688</v>
+        <v>261822</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2960,10 +3167,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>895</v>
+        <v>542</v>
       </c>
       <c r="N20" s="7">
-        <v>888510</v>
+        <v>512158</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -2981,10 +3188,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>522</v>
+        <v>302</v>
       </c>
       <c r="D21" s="7">
-        <v>501532</v>
+        <v>291649</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2996,10 +3203,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3011,10 +3218,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1183</v>
+        <v>673</v>
       </c>
       <c r="N21" s="7">
-        <v>1178374</v>
+        <v>634583</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3028,55 +3235,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>524</v>
+        <v>62</v>
       </c>
       <c r="D22" s="7">
-        <v>538090</v>
+        <v>59396</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>727</v>
+        <v>95</v>
       </c>
       <c r="I22" s="7">
-        <v>752521</v>
+        <v>108043</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>1251</v>
+        <v>157</v>
       </c>
       <c r="N22" s="7">
-        <v>1290610</v>
+        <v>167439</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,49 +3292,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1912</v>
+        <v>158</v>
       </c>
       <c r="D23" s="7">
-        <v>1926392</v>
+        <v>150487</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>2072</v>
+        <v>195</v>
       </c>
       <c r="I23" s="7">
-        <v>2120933</v>
+        <v>225865</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>3984</v>
+        <v>353</v>
       </c>
       <c r="N23" s="7">
-        <v>4047326</v>
+        <v>376352</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,63 +3343,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>524</v>
+      </c>
+      <c r="D25" s="7">
+        <v>538090</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>727</v>
+      </c>
+      <c r="I25" s="7">
+        <v>752521</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1251</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1290610</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1912</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1926393</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2072</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2120932</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3984</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4047326</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>2436</v>
       </c>
-      <c r="D24" s="7">
-        <v>2464482</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>2464483</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>2799</v>
       </c>
-      <c r="I24" s="7">
-        <v>2873454</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>2873453</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>5235</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>5337936</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3205,8 +3568,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21722608-5C38-4F2B-AF02-DCE24B058765}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE8BB5E-2671-4488-9FF7-EF7A3CAF5097}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3222,7 +3585,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3329,13 +3692,13 @@
         <v>131023</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>155</v>
@@ -3344,13 +3707,13 @@
         <v>157324</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>284</v>
@@ -3359,13 +3722,13 @@
         <v>288347</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,13 +3743,13 @@
         <v>130089</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>143</v>
@@ -3395,13 +3758,13 @@
         <v>145779</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="M5" s="7">
         <v>273</v>
@@ -3410,13 +3773,13 @@
         <v>275868</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,13 +3847,13 @@
         <v>256302</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>357</v>
@@ -3499,13 +3862,13 @@
         <v>380964</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>605</v>
@@ -3514,13 +3877,13 @@
         <v>637266</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3898,13 @@
         <v>203966</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>113</v>
@@ -3550,13 +3913,13 @@
         <v>119627</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>314</v>
@@ -3565,13 +3928,13 @@
         <v>323592</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +4002,13 @@
         <v>448757</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>479</v>
@@ -3654,13 +4017,13 @@
         <v>510424</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>910</v>
@@ -3669,13 +4032,13 @@
         <v>959181</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,13 +4053,13 @@
         <v>167042</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>144</v>
@@ -3705,13 +4068,13 @@
         <v>154132</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>302</v>
@@ -3720,13 +4083,13 @@
         <v>321174</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,13 +4157,13 @@
         <v>272517</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>209</v>
@@ -3809,13 +4172,13 @@
         <v>236909</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>452</v>
@@ -3824,13 +4187,13 @@
         <v>509425</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,13 +4208,13 @@
         <v>222110</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>254</v>
@@ -3860,13 +4223,13 @@
         <v>293327</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>454</v>
@@ -3875,13 +4238,13 @@
         <v>515437</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +4312,13 @@
         <v>108708</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>119</v>
@@ -3964,13 +4327,13 @@
         <v>131117</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>220</v>
@@ -3979,13 +4342,13 @@
         <v>239825</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,13 +4363,13 @@
         <v>251804</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>252</v>
@@ -4015,13 +4378,13 @@
         <v>277213</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>479</v>
@@ -4030,13 +4393,13 @@
         <v>529017</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,49 +4461,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="D19" s="7">
-        <v>206341</v>
+        <v>90932</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
-        <v>264</v>
+        <v>90</v>
       </c>
       <c r="I19" s="7">
-        <v>285711</v>
+        <v>91975</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
-        <v>447</v>
+        <v>172</v>
       </c>
       <c r="N19" s="7">
-        <v>492052</v>
+        <v>182907</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,49 +4512,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>317</v>
+        <v>197</v>
       </c>
       <c r="D20" s="7">
-        <v>349563</v>
+        <v>216086</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
-        <v>424</v>
+        <v>252</v>
       </c>
       <c r="I20" s="7">
-        <v>451055</v>
+        <v>260109</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
-        <v>741</v>
+        <v>449</v>
       </c>
       <c r="N20" s="7">
-        <v>800618</v>
+        <v>476195</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,10 +4563,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>500</v>
+        <v>279</v>
       </c>
       <c r="D21" s="7">
-        <v>555904</v>
+        <v>307018</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4215,10 +4578,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>688</v>
+        <v>342</v>
       </c>
       <c r="I21" s="7">
-        <v>736766</v>
+        <v>352084</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4230,10 +4593,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1188</v>
+        <v>621</v>
       </c>
       <c r="N21" s="7">
-        <v>1292670</v>
+        <v>659102</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4247,55 +4610,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1335</v>
+        <v>101</v>
       </c>
       <c r="D22" s="7">
-        <v>1423649</v>
+        <v>115409</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="H22" s="7">
-        <v>1583</v>
+        <v>174</v>
       </c>
       <c r="I22" s="7">
-        <v>1702448</v>
+        <v>193737</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
-        <v>2918</v>
+        <v>275</v>
       </c>
       <c r="N22" s="7">
-        <v>3126097</v>
+        <v>309146</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,49 +4667,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1233</v>
+        <v>120</v>
       </c>
       <c r="D23" s="7">
-        <v>1324573</v>
+        <v>133476</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="H23" s="7">
-        <v>1330</v>
+        <v>172</v>
       </c>
       <c r="I23" s="7">
-        <v>1441133</v>
+        <v>190945</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="M23" s="7">
-        <v>2563</v>
+        <v>292</v>
       </c>
       <c r="N23" s="7">
-        <v>2765706</v>
+        <v>324422</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4355,63 +4718,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>221</v>
+      </c>
+      <c r="D24" s="7">
+        <v>248885</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>346</v>
+      </c>
+      <c r="I24" s="7">
+        <v>384682</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>567</v>
+      </c>
+      <c r="N24" s="7">
+        <v>633568</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1335</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1423649</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1583</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1702448</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2918</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3126097</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1233</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1324573</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1330</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1441133</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2563</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2765706</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>2568</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>2748222</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>2913</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3143581</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>5481</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>5891803</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4424,8 +4943,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10EB9494-235E-4992-AFE0-3C45DB3B83C2}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D1C42C-C937-4E15-90A1-EDBD013FFED5}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4441,7 +4960,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4548,13 +5067,13 @@
         <v>82790</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="H4" s="7">
         <v>113</v>
@@ -4563,13 +5082,13 @@
         <v>113241</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="M4" s="7">
         <v>188</v>
@@ -4578,13 +5097,13 @@
         <v>196031</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,13 +5118,13 @@
         <v>142608</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="H5" s="7">
         <v>134</v>
@@ -4614,13 +5133,13 @@
         <v>130044</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="M5" s="7">
         <v>270</v>
@@ -4629,13 +5148,13 @@
         <v>272652</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,13 +5222,13 @@
         <v>189753</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="H7" s="7">
         <v>291</v>
@@ -4718,28 +5237,28 @@
         <v>285110</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="M7" s="7">
         <v>473</v>
       </c>
       <c r="N7" s="7">
-        <v>474864</v>
+        <v>474863</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,13 +5273,13 @@
         <v>148259</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="H8" s="7">
         <v>158</v>
@@ -4769,13 +5288,13 @@
         <v>151708</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="M8" s="7">
         <v>300</v>
@@ -4784,13 +5303,13 @@
         <v>299966</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4832,7 +5351,7 @@
         <v>773</v>
       </c>
       <c r="N9" s="7">
-        <v>774830</v>
+        <v>774829</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4858,13 +5377,13 @@
         <v>320621</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="H10" s="7">
         <v>383</v>
@@ -4873,13 +5392,13 @@
         <v>382375</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>312</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="M10" s="7">
         <v>689</v>
@@ -4888,13 +5407,13 @@
         <v>702996</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,13 +5428,13 @@
         <v>203517</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="H11" s="7">
         <v>208</v>
@@ -4924,13 +5443,13 @@
         <v>205827</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>321</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="M11" s="7">
         <v>405</v>
@@ -4939,13 +5458,13 @@
         <v>409344</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,13 +5532,13 @@
         <v>199249</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="H13" s="7">
         <v>186</v>
@@ -5028,13 +5547,13 @@
         <v>201266</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="M13" s="7">
         <v>366</v>
@@ -5043,13 +5562,13 @@
         <v>400515</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,13 +5583,13 @@
         <v>287005</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="H14" s="7">
         <v>275</v>
@@ -5079,13 +5598,13 @@
         <v>296300</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="M14" s="7">
         <v>536</v>
@@ -5094,13 +5613,13 @@
         <v>583305</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,13 +5687,13 @@
         <v>81199</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="H16" s="7">
         <v>97</v>
@@ -5183,13 +5702,13 @@
         <v>112635</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="M16" s="7">
         <v>170</v>
@@ -5198,13 +5717,13 @@
         <v>193834</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,13 +5738,13 @@
         <v>260629</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="H17" s="7">
         <v>273</v>
@@ -5234,13 +5753,13 @@
         <v>310332</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="M17" s="7">
         <v>503</v>
@@ -5249,13 +5768,13 @@
         <v>570961</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5317,49 +5836,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>180</v>
+        <v>72</v>
       </c>
       <c r="D19" s="7">
-        <v>166507</v>
+        <v>72977</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="H19" s="7">
-        <v>236</v>
+        <v>94</v>
       </c>
       <c r="I19" s="7">
-        <v>292190</v>
+        <v>100420</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="M19" s="7">
-        <v>416</v>
+        <v>166</v>
       </c>
       <c r="N19" s="7">
-        <v>458697</v>
+        <v>173397</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,49 +5887,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>439</v>
+        <v>247</v>
       </c>
       <c r="D20" s="7">
-        <v>416857</v>
+        <v>255065</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="H20" s="7">
+        <v>250</v>
+      </c>
+      <c r="I20" s="7">
+        <v>267330</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="I20" s="7">
-        <v>472095</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>372</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="M20" s="7">
-        <v>846</v>
+        <v>497</v>
       </c>
       <c r="N20" s="7">
-        <v>888952</v>
+        <v>522395</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>374</v>
+        <v>409</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>376</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,10 +5938,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>619</v>
+        <v>319</v>
       </c>
       <c r="D21" s="7">
-        <v>583364</v>
+        <v>328042</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5434,10 +5953,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>643</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>764285</v>
+        <v>367750</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5449,10 +5968,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1262</v>
+        <v>663</v>
       </c>
       <c r="N21" s="7">
-        <v>1347649</v>
+        <v>695792</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5466,55 +5985,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>996</v>
+        <v>108</v>
       </c>
       <c r="D22" s="7">
-        <v>1040119</v>
+        <v>93530</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="H22" s="7">
-        <v>1306</v>
+        <v>142</v>
       </c>
       <c r="I22" s="7">
-        <v>1386818</v>
+        <v>191771</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>216</v>
+        <v>415</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>381</v>
+        <v>417</v>
       </c>
       <c r="M22" s="7">
-        <v>2302</v>
+        <v>250</v>
       </c>
       <c r="N22" s="7">
-        <v>2426937</v>
+        <v>285301</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>383</v>
+        <v>419</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>384</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,49 +6042,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1405</v>
+        <v>192</v>
       </c>
       <c r="D23" s="7">
-        <v>1458874</v>
+        <v>161791</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>385</v>
+        <v>421</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>387</v>
+        <v>423</v>
       </c>
       <c r="H23" s="7">
-        <v>1455</v>
+        <v>157</v>
       </c>
       <c r="I23" s="7">
-        <v>1566305</v>
+        <v>204764</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>208</v>
+        <v>424</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="M23" s="7">
-        <v>2860</v>
+        <v>349</v>
       </c>
       <c r="N23" s="7">
-        <v>3025179</v>
+        <v>366556</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>390</v>
+        <v>427</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>391</v>
+        <v>428</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>392</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,63 +6093,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>300</v>
+      </c>
+      <c r="D24" s="7">
+        <v>255321</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>299</v>
+      </c>
+      <c r="I24" s="7">
+        <v>396535</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>599</v>
+      </c>
+      <c r="N24" s="7">
+        <v>651857</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>996</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1040119</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1306</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1386818</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2302</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2426937</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1405</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1458874</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1455</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1566305</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2860</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3025179</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>2401</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>2498993</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>2761</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>2953123</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>5162</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>5452116</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5643,8 +6318,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2036CB56-AFAC-4E40-931F-5A2CE1DF0637}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E6401C-F9CB-4BCA-85D1-59355B7BB8B5}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5660,7 +6335,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5764,46 +6439,46 @@
         <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>27759</v>
+        <v>25623</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
       </c>
       <c r="I4" s="7">
-        <v>40115</v>
+        <v>33487</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>397</v>
+        <v>448</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
       </c>
       <c r="N4" s="7">
-        <v>67873</v>
+        <v>59111</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>400</v>
+        <v>451</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>401</v>
+        <v>452</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>402</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,46 +6490,46 @@
         <v>55</v>
       </c>
       <c r="D5" s="7">
-        <v>131820</v>
+        <v>152384</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>405</v>
+        <v>456</v>
       </c>
       <c r="H5" s="7">
         <v>73</v>
       </c>
       <c r="I5" s="7">
-        <v>121346</v>
+        <v>112414</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>406</v>
+        <v>457</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>408</v>
+        <v>459</v>
       </c>
       <c r="M5" s="7">
         <v>128</v>
       </c>
       <c r="N5" s="7">
-        <v>253167</v>
+        <v>264796</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>411</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5866,7 +6541,7 @@
         <v>70</v>
       </c>
       <c r="D6" s="7">
-        <v>159579</v>
+        <v>178007</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5881,7 +6556,7 @@
         <v>99</v>
       </c>
       <c r="I6" s="7">
-        <v>161461</v>
+        <v>145901</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5896,7 +6571,7 @@
         <v>169</v>
       </c>
       <c r="N6" s="7">
-        <v>321040</v>
+        <v>323907</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5919,46 +6594,46 @@
         <v>46</v>
       </c>
       <c r="D7" s="7">
-        <v>56817</v>
+        <v>53653</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>412</v>
+        <v>463</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>413</v>
+        <v>464</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>301</v>
+        <v>465</v>
       </c>
       <c r="H7" s="7">
         <v>106</v>
       </c>
       <c r="I7" s="7">
-        <v>112012</v>
+        <v>97734</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>414</v>
+        <v>466</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
       <c r="M7" s="7">
         <v>152</v>
       </c>
       <c r="N7" s="7">
-        <v>168829</v>
+        <v>151388</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,46 +6645,46 @@
         <v>99</v>
       </c>
       <c r="D8" s="7">
-        <v>135398</v>
+        <v>139777</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>293</v>
+        <v>472</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>421</v>
+        <v>473</v>
       </c>
       <c r="H8" s="7">
         <v>205</v>
       </c>
       <c r="I8" s="7">
-        <v>224412</v>
+        <v>268410</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>423</v>
+        <v>475</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>424</v>
+        <v>476</v>
       </c>
       <c r="M8" s="7">
         <v>304</v>
       </c>
       <c r="N8" s="7">
-        <v>359810</v>
+        <v>408186</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6021,7 +6696,7 @@
         <v>145</v>
       </c>
       <c r="D9" s="7">
-        <v>192215</v>
+        <v>193430</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6036,7 +6711,7 @@
         <v>311</v>
       </c>
       <c r="I9" s="7">
-        <v>336424</v>
+        <v>366144</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6051,7 +6726,7 @@
         <v>456</v>
       </c>
       <c r="N9" s="7">
-        <v>528639</v>
+        <v>559574</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6074,46 +6749,46 @@
         <v>124</v>
       </c>
       <c r="D10" s="7">
-        <v>131382</v>
+        <v>121202</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="H10" s="7">
         <v>206</v>
       </c>
       <c r="I10" s="7">
-        <v>154601</v>
+        <v>138106</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>110</v>
+        <v>483</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>428</v>
+        <v>484</v>
       </c>
       <c r="M10" s="7">
         <v>330</v>
       </c>
       <c r="N10" s="7">
-        <v>285984</v>
+        <v>259308</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>433</v>
+        <v>486</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,46 +6800,46 @@
         <v>259</v>
       </c>
       <c r="D11" s="7">
-        <v>265144</v>
+        <v>261543</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>435</v>
+        <v>488</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>436</v>
+        <v>489</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="H11" s="7">
         <v>528</v>
       </c>
       <c r="I11" s="7">
-        <v>375614</v>
+        <v>379921</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>435</v>
+        <v>492</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>118</v>
+        <v>493</v>
       </c>
       <c r="M11" s="7">
         <v>787</v>
       </c>
       <c r="N11" s="7">
-        <v>640757</v>
+        <v>641465</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>439</v>
+        <v>494</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>440</v>
+        <v>495</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6176,7 +6851,7 @@
         <v>383</v>
       </c>
       <c r="D12" s="7">
-        <v>396526</v>
+        <v>382745</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6191,7 +6866,7 @@
         <v>734</v>
       </c>
       <c r="I12" s="7">
-        <v>530215</v>
+        <v>518027</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6206,7 +6881,7 @@
         <v>1117</v>
       </c>
       <c r="N12" s="7">
-        <v>926741</v>
+        <v>900773</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6229,46 +6904,46 @@
         <v>109</v>
       </c>
       <c r="D13" s="7">
-        <v>116094</v>
+        <v>105524</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>442</v>
+        <v>256</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>444</v>
+        <v>498</v>
       </c>
       <c r="H13" s="7">
         <v>186</v>
       </c>
       <c r="I13" s="7">
-        <v>124560</v>
+        <v>111273</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>445</v>
+        <v>499</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>446</v>
+        <v>500</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>447</v>
+        <v>238</v>
       </c>
       <c r="M13" s="7">
         <v>295</v>
       </c>
       <c r="N13" s="7">
-        <v>240654</v>
+        <v>216797</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>448</v>
+        <v>501</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,46 +6955,46 @@
         <v>351</v>
       </c>
       <c r="D14" s="7">
-        <v>344017</v>
+        <v>333382</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>451</v>
+        <v>266</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>453</v>
+        <v>505</v>
       </c>
       <c r="H14" s="7">
         <v>625</v>
       </c>
       <c r="I14" s="7">
-        <v>408770</v>
+        <v>404466</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>454</v>
+        <v>506</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>455</v>
+        <v>248</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>456</v>
+        <v>507</v>
       </c>
       <c r="M14" s="7">
         <v>976</v>
       </c>
       <c r="N14" s="7">
-        <v>752787</v>
+        <v>737848</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>457</v>
+        <v>508</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>458</v>
+        <v>509</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>459</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,7 +7006,7 @@
         <v>460</v>
       </c>
       <c r="D15" s="7">
-        <v>460111</v>
+        <v>438906</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6346,7 +7021,7 @@
         <v>811</v>
       </c>
       <c r="I15" s="7">
-        <v>533330</v>
+        <v>515739</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6361,7 +7036,7 @@
         <v>1271</v>
       </c>
       <c r="N15" s="7">
-        <v>993441</v>
+        <v>954645</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6384,46 +7059,46 @@
         <v>75</v>
       </c>
       <c r="D16" s="7">
-        <v>68538</v>
+        <v>63815</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>460</v>
+        <v>511</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="H16" s="7">
         <v>123</v>
       </c>
       <c r="I16" s="7">
-        <v>76423</v>
+        <v>69434</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>464</v>
+        <v>515</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>465</v>
+        <v>516</v>
       </c>
       <c r="M16" s="7">
         <v>198</v>
       </c>
       <c r="N16" s="7">
-        <v>144961</v>
+        <v>133249</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6435,46 +7110,46 @@
         <v>308</v>
       </c>
       <c r="D17" s="7">
-        <v>281969</v>
+        <v>266855</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>469</v>
+        <v>520</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>470</v>
+        <v>521</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>471</v>
+        <v>522</v>
       </c>
       <c r="H17" s="7">
         <v>530</v>
       </c>
       <c r="I17" s="7">
-        <v>310388</v>
+        <v>286442</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>472</v>
+        <v>523</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>473</v>
+        <v>524</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>474</v>
+        <v>525</v>
       </c>
       <c r="M17" s="7">
         <v>838</v>
       </c>
       <c r="N17" s="7">
-        <v>592357</v>
+        <v>553297</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>475</v>
+        <v>526</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>476</v>
+        <v>527</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>477</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6486,7 +7161,7 @@
         <v>383</v>
       </c>
       <c r="D18" s="7">
-        <v>350507</v>
+        <v>330670</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6501,7 +7176,7 @@
         <v>653</v>
       </c>
       <c r="I18" s="7">
-        <v>386811</v>
+        <v>355876</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6516,7 +7191,7 @@
         <v>1036</v>
       </c>
       <c r="N18" s="7">
-        <v>737318</v>
+        <v>686546</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6536,49 +7211,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>210</v>
+        <v>67</v>
       </c>
       <c r="D19" s="7">
-        <v>136697</v>
+        <v>42396</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>463</v>
+        <v>529</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>479</v>
+        <v>531</v>
       </c>
       <c r="H19" s="7">
-        <v>519</v>
+        <v>135</v>
       </c>
       <c r="I19" s="7">
-        <v>391144</v>
+        <v>269918</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>480</v>
+        <v>532</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>481</v>
+        <v>533</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>482</v>
+        <v>534</v>
       </c>
       <c r="M19" s="7">
-        <v>729</v>
+        <v>202</v>
       </c>
       <c r="N19" s="7">
-        <v>527841</v>
+        <v>312314</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>483</v>
+        <v>535</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>484</v>
+        <v>536</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>485</v>
+        <v>537</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,49 +7262,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>811</v>
+        <v>498</v>
       </c>
       <c r="D20" s="7">
-        <v>555229</v>
+        <v>321941</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>472</v>
+        <v>538</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>486</v>
+        <v>539</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>487</v>
+        <v>540</v>
       </c>
       <c r="H20" s="7">
-        <v>1184</v>
+        <v>690</v>
       </c>
       <c r="I20" s="7">
-        <v>633142</v>
+        <v>337685</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>488</v>
+        <v>541</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>489</v>
+        <v>542</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>490</v>
+        <v>543</v>
       </c>
       <c r="M20" s="7">
-        <v>1995</v>
+        <v>1188</v>
       </c>
       <c r="N20" s="7">
-        <v>1188370</v>
+        <v>659626</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>491</v>
+        <v>544</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>492</v>
+        <v>545</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>493</v>
+        <v>546</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6638,10 +7313,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1021</v>
+        <v>565</v>
       </c>
       <c r="D21" s="7">
-        <v>691926</v>
+        <v>364337</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6653,10 +7328,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1703</v>
+        <v>825</v>
       </c>
       <c r="I21" s="7">
-        <v>1024286</v>
+        <v>607603</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6668,10 +7343,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2724</v>
+        <v>1390</v>
       </c>
       <c r="N21" s="7">
-        <v>1716211</v>
+        <v>971940</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6685,55 +7360,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>579</v>
+        <v>143</v>
       </c>
       <c r="D22" s="7">
-        <v>537288</v>
+        <v>83956</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>494</v>
+        <v>547</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>495</v>
+        <v>548</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>496</v>
+        <v>549</v>
       </c>
       <c r="H22" s="7">
-        <v>1166</v>
+        <v>384</v>
       </c>
       <c r="I22" s="7">
-        <v>898854</v>
+        <v>185009</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>497</v>
+        <v>550</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>498</v>
+        <v>551</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>499</v>
+        <v>552</v>
       </c>
       <c r="M22" s="7">
-        <v>1745</v>
+        <v>527</v>
       </c>
       <c r="N22" s="7">
-        <v>1436142</v>
+        <v>268964</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>500</v>
+        <v>553</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>501</v>
+        <v>344</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>502</v>
+        <v>554</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6742,49 +7417,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1883</v>
+        <v>313</v>
       </c>
       <c r="D23" s="7">
-        <v>1713576</v>
+        <v>197335</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>503</v>
+        <v>555</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>504</v>
+        <v>556</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>505</v>
+        <v>557</v>
       </c>
       <c r="H23" s="7">
-        <v>3145</v>
+        <v>494</v>
       </c>
       <c r="I23" s="7">
-        <v>2073673</v>
+        <v>239413</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>506</v>
+        <v>558</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>507</v>
+        <v>559</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>508</v>
+        <v>560</v>
       </c>
       <c r="M23" s="7">
-        <v>5028</v>
+        <v>807</v>
       </c>
       <c r="N23" s="7">
-        <v>3787249</v>
+        <v>436749</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>509</v>
+        <v>561</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>510</v>
+        <v>562</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>511</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6793,63 +7468,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>456</v>
+      </c>
+      <c r="D24" s="7">
+        <v>281291</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>878</v>
+      </c>
+      <c r="I24" s="7">
+        <v>424422</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1334</v>
+      </c>
+      <c r="N24" s="7">
+        <v>705713</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>579</v>
+      </c>
+      <c r="D25" s="7">
+        <v>496170</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1166</v>
+      </c>
+      <c r="I25" s="7">
+        <v>904961</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1745</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1401131</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1883</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1673217</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3145</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2028751</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5028</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3701968</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>2462</v>
       </c>
-      <c r="D24" s="7">
-        <v>2250864</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>2169387</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>4311</v>
       </c>
-      <c r="I24" s="7">
-        <v>2972527</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>2933712</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6773</v>
       </c>
-      <c r="N24" s="7">
-        <v>5223391</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>5103099</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
